--- a/output_single_question_pivoted.xlsx
+++ b/output_single_question_pivoted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,16 +635,14 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>OutcomesCaseStudySummary-Livestock-P573-OICS4373.pdf</t>
+          <t>OutcomesCaseStudySummary-CCAFS-P264-OICS3790.pdf</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>```json
 {
-  "innovation_id": "277",
-  "title": "Joint village land use planning in Tanzania",
-  "description": "The Joint Village Land Use Planning (JVLUP) approach was developed to improve the management of rangelands that cross village boundaries in Tanzania. It involves creating a natural resource management sector plan (NRMSP) for shared resources like grazing, water, or forests. The Sustainable Rangeland Management Project (SRMP) piloted this approach in clusters of villages, leading to the issuance of certificates of customary rights of occupancy (CCROs) to local livestock keepers. The approach was later upscaled and strengthened with a focus on gender, conflict resolution training, and landscape-level mapping and planning. This innovation has been included in the revised national guidelines for participatory village land use planning, promoting its use across all villages sharing grazing lands in Tanzania."
+  "Create a brief description of the innovations reported. CGIAR develops multiple innovations, that are usually presented in the format of a number id, with a hyphen and a title, and later referenced in the text. What's the description of the innnovation in the text that made the outcome or impact possible?": "The innovation reported is the Climate-Smart Maps and Adaptation Plans (CS-MAP) developed for rice production in Vietnam's Mekong River Delta, Red River Delta, Northern Midlands, and South Central Coast. This innovation, identified as 275-Climate-Related Risk Maps and Adaptation Plans (ClimateSmartMAP), was crucial in guiding cropping calendar adjustments to address salinity intrusion and water shortage risks, thereby helping Vietnam's rice-producing regions cope with these challenges."
 }
 ```</t>
         </is>
@@ -653,7 +651,7 @@
         <is>
           <t>```json
 {
-  "ImpactAssessmentReported": false
+  "From the text of the Outcome case study summary provided to you, does it seems like the \"Impact Assessment study\" is already reported?": "No, the text does not explicitly mention that an 'Impact Assessment study' has been reported. It discusses the implementation and outcomes of the Climate-Smart Maps and Adaptation Plans (CS-MAP) but does not specify an impact assessment study."
 }
 ```</t>
         </is>
@@ -662,7 +660,7 @@
         <is>
           <t>```json
 {
-  "people_or_organizations": "Not Defined"
+  "How many people or organisations made use of the intervention?": "The document does not specify the exact number of people or organizations that made use of the intervention."
 }
 ```</t>
         </is>
@@ -671,10 +669,12 @@
         <is>
           <t>```json
 {
-  "Gender": 1,
-  "Youth": 0,
-  "CapDev": 1,
-  "Climate Change": 0
+  "Impact Area Tags (0,1,2)' (This is the relevance and is quantified by '0 - Not Targeted', '1 - Significant' and '2 - Principal' usually towards the end of the document and this speaks to CGIAR Impact Areas which are around the themes of Gender, Climate Change, Poverty, Nutrition, Environment, and others - focus on capturing the parameters with the 0, 1, 2, values)": {
+    "Gender relevance": "0-NotTargeted",
+    "Youth relevance": "0-NotTargeted",
+    "CapDev relevance": "2-Principal",
+    "Climate Change relevance": "2-Principal"
+  }
 }
 ```</t>
         </is>
@@ -683,14 +683,17 @@
         <is>
           <t>```json
 {
-    "Innovation Partners": [
-        "Tanzania Natural Resource Forum (TNRF)",
-        "International Land Coalition (ILC)"
-    ],
-    "Demand Partners": [
-        "Ministry of Livestock and Fisheries (MOLF), United Republic of Tanzania"
-    ],
-    "Scaling Partners": []
+    "Name and type of partners listed as Key contributors that were involved. The type of partner needs to be inferred [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partner": [
+            "CCAFS-ClimateChange,AgricultureandFoodSecurity"
+        ],
+        "Demand Partner": [
+            "MARD-MinistryofAgricultureandRuralDevelopment(Vietnam)"
+        ],
+        "Scaling Partner": [
+            "DCP-DepartmentofCropProduction"
+        ]
+    }
 }
 ```</t>
         </is>
@@ -699,9 +702,11 @@
         <is>
           <t>```json
 {
-    "Innovation Partners": 2,
-    "Demand Partners": 1,
-    "Scaling Partners": 0
+    "Number and type of partners listed [# innovation partners, # demand partners, # scaling partners]": {
+        "innovation partners": 0,
+        "demand partners": 0,
+        "scaling partners": 0
+    }
 }
 ```</t>
         </is>
@@ -710,38 +715,1042 @@
         <is>
           <t>```json
 {
-  "CGIAR_centres": [
+  "Please extract the following parameter: CGIAR centres": "CCAFS-ClimateChange,AgricultureandFoodSecurity"
+}
+```</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Geographical scope' ('Global / Regional / National': please provide a hierarchy, for example, if national, in which regions are those nations? Using CGIAR regions)": {
+    "Scope": "Sub-national",
+    "Country": "The Socialist Republic of VietNam",
+    "Regions": [
+      "Mekong River Delta",
+      "Red River Delta",
+      "Northern Midlands",
+      "South Central Coast"
+    ]
+  }
+}
+```</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Locations deployed": "Mekong River Delta, Red River Delta, Northern Midlands, South Central Coast"
+}
+```</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Non-CG partners": "MARD-MinistryofAgricultureandRuralDevelopment(Vietnam)"
+}
+```</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: OICR_ID": "Study #3790"
+}
+```</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Stage of maturity of change reported:": "Stage3"
+}
+```</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Status": "Completed"
+}
+```</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Title": "Vietnam's rice-producing regions (1.3Mha) cope with water shortage, drought, and salinity intrusion by applying the CCAFS' Climate-Smart Maps and Adaptation Plans"
+}
+```</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Year": "2020"
+}
+```</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for impact on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for outcome on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of impact reported? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of outcome reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "To what Sustainable Development Goal (SDG) from the United Nations definitions this text is related to?": [
+        "GOAL 2: Zero Hunger",
+        "GOAL 13: Climate Action"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What CGIAR innovations are mentioned? Provide the ID and the title' (Considering that CGIAR Innovations are usually referenced in this text in a specific section and with the format of some numbers, a hyphen and then the innovation name developed by CGIAR)": [
+    {
+      "ID": "275",
+      "Title": "Climate-Related Risk Maps and Adaptation Plans (Climate Smart MAP) for Rice Production in Vietnam's Mekong River Delta"
+    }
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What amount of impact was achieved?": "Areas of rice plants that avoid salinity intrusion during Winter-Spring season in two consecutive years: 1,300,000 hectares."
+}
+```</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What are the Impacts reported - description and amount (may be multiple)": [
+        {
+            "description": "Vietnam's rice-producing regions cope with water shortage, drought, and salinity intrusion by applying the CCAFS' Climate-Smart Maps and Adaptation Plans (CS-MAP).",
+            "amount": "1,300,000 hectares of rice plants avoided salinity intrusion during the Winter-Spring season in two consecutive years."
+        },
+        {
+            "description": "An adaptation strategy for the rice sector in the Mekong River Delta (MRD) to address drought and salinity risks was developed and proven to be effective.",
+            "amount": "Specifically, the cropping adjustments guided by CS-MAP covered more than 1 million hectares of rice (800,000 ha in 2019-2020 and 500,000 ha in 2020-2021)."
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What impact (effect) of the intervention?": "The intervention, which involved the implementation of the Climate-Smart Maps and Adaptation Plans (CS-MAP) by Vietnam's Department of Crop Production (DCP), helped Vietnam's rice-producing regions cope with water shortage, drought, and salinity intrusion. Specifically, cropping adjustments guided by CS-MAP were applied in more than 800,000 hectares during the 2019-2020 winter-spring season and over 500,000 hectares in the 2020-2021 season. This intervention allowed for early planting of rice, which helped avoid salinity intrusion and resulted in high prices for the harvest. The CS-MAP was also scaled to other major rice-producing areas in Vietnam, such as the Red River Delta and South Central Coast, to address water shortage and salinity intrusion issues."
+}
+```</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What innovations contributed or have resulted in this outcome or impact?": "275-Climate-RelatedRiskMapsandAdaptationPlans(ClimateSmartMAP)forRiceProductioninVietnam'sMekongRiverDelta(https://tinyurl.com/2eq5rkg2)"
+}
+```</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What outcome described?": "Vietnam's rice-producing regions (1.3Mha) cope with water shortage, drought, and salinity intrusion by applying the CCAFS' Climate-Smart Maps and Adaptation Plans. The Department of Crop Production (DCP) in Vietnam has been implementing the Climate-Smart Maps and Adaptation Plans (CS-MAP) for rice production in the Mekong River Delta (MRD). Cropping adjustments guided by CS-MAP were applied in more than 800,000 ha and 500,000 ha during the Winter-Spring seasons of 2019-2020 and 2020-2021, respectively. CS-MAP has also been applied to other major rice-producing areas of the Red River Delta and Northern Midlands (for irrigation management) and South Central Coast (for drought and salinity intrusion)."
+}
+```</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What's the outcome(s) reported - description and amount (may be multiple)' (outcome is the context of CGIAR are any changes in knowledge, skills, attitudes and/or relationships, which manifests as a change in behavior, to which research outputs and related activities have contributed. CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The outcomes are in the Sphere of Influence, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": [
+    {
+      "description": "Vietnam's Department of Crop Production (DCP) implemented the Climate-Smart Maps and Adaptation Plans (CS-MAP) for rice production in the Mekong River Delta (MRD) to address salinity intrusion during the Winter-Spring seasons of 2019-2020 and 2020-2021. Cropping adjustments guided by CS-MAP were applied in more than 800,000 hectares and 500,000 hectares, respectively. CS-MAP has also been applied to other major rice-producing areas of the Red River Delta and Northern Midlands (for irrigation management) and South Central Coast (for drought and salinity intrusion).",
+      "amount": "1,300,000 hectares"
+    }
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Who changed behaviour as a result of the intervention?": "Vietnam's Department of Crop Production (DCP) and the Ministry of Agriculture and Rural Development (MARD) changed behaviour as a result of the intervention by implementing the Climate-Smart Maps and Adaptation Plans (CS-MAP) for rice production in the Mekong River Delta and scaling it to other major rice-producing areas in Vietnam."
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>OutcomesCaseStudySummary-Livestock-P568-OICS3560.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Create a brief description of the innovations reported. CGIAR develops multiple innovations, that are usually presented in the format of a number id, with a hyphen and a title, and later referenced in the text. What's the description of the innnovation in the text that made the outcome or impact possible?": [
+        {
+            "id": 2347,
+            "title": "CLEANED-X",
+            "description": "Comprehensive Livestock Environmental Assessment for improved Nutrition, a secured Environment, and sustainable Development along livestock value chains tool version 3"
+        },
+        {
+            "id": 73,
+            "title": "CLEANED X Tools",
+            "description": "A set of tools under the CLEANED framework for assessing environmental impacts of livestock systems."
+        },
+        {
+            "id": 241,
+            "title": "CLEANED-R",
+            "description": "Comprehensive Livestock Environmental Assessment for Improved Nutrition, a Secured Environment and Sustainable Development along Livestock and Fish Value Chains tool"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "From the text of the Outcome case study summary provided to you, does it seems like the \"Impact Assessment study\" is already reported?": "Yes, the impact assessment study is reported. The document describes the development and adoption of the CLEANED tool, its impact on knowledge and attitudes regarding environmental impacts of livestock production, and its influence on policy and investment decisions. It also mentions a survey conducted to evaluate changes in attitude and knowledge among end users."
+}
+```</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "How many people or organisations made use of the intervention?": "End users in over 34 countries, representing approximately 81 different organizations, have used the multi-dimensional tool."
+}
+```</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Impact Area Tags (0,1,2)' (This is the relevance and is quantified by '0 - Not Targeted', '1 - Significant' and '2 - Principal' usually towards the end of the document and this speaks to CGIAR Impact Areas which are around the themes of Gender, Climate Change, Poverty, Nutrition, Environment, and others - focus on capturing the parameters with the 0, 1, 2, values)": {
+    "Gender relevance": 0,
+    "Youth relevance": 0,
+    "CapDev relevance": 1,
+    "Climate Change relevance": 2
+  }
+}
+```</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Name and type of partners listed as Key contributors that were involved. The type of partner needs to be inferred [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partner": [
+            "Alliance of Bioversity International and CIAT",
+            "ILRI"
+        ],
+        "Demand Partner": [],
+        "Scaling Partner": []
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Number and type of partners listed [# innovation partners, # demand partners, # scaling partners]": "[0 innovation partners, 0 demand partners, 0 scaling partners]"
+}
+```</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: CGIAR centres": [
+    "Alliance of Bioversity International and CIAT",
     "ILRI"
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Geographical_scope": {
-    "Level": "National",
-    "Country": "Tanzania, United Republic",
-    "CGIAR_region": "Sub-Saharan Africa"
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Geographical scope' ('Global / Regional / National': please provide a hierarchy, for example, if national, in which regions are those nations? Using CGIAR regions)": {
+        "Scope": "Multi-national",
+        "Countries": [
+            "Tanzania, United Republic",
+            "The Socialist Republic of Viet Nam",
+            "Uganda",
+            "Burkina Faso",
+            "Rwanda",
+            "Tunisia",
+            "Ethiopia",
+            "Nepal",
+            "Nicaragua"
+        ],
+        "Regions": {
+            "Africa": [
+                "Tanzania, United Republic",
+                "Uganda",
+                "Burkina Faso",
+                "Rwanda",
+                "Tunisia",
+                "Ethiopia"
+            ],
+            "Asia": [
+                "The Socialist Republic of Viet Nam",
+                "Nepal"
+            ],
+            "Latin America": [
+                "Nicaragua"
+            ]
+        }
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Locations deployed": [
+    "Tanzania, United Republic",
+    "The Socialist Republic of Viet Nam",
+    "Uganda",
+    "Burkina Faso",
+    "Rwanda",
+    "Tunisia",
+    "Ethiopia",
+    "Nepal",
+    "Nicaragua"
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Non-CG partners": "&lt;Not Defined&gt;"
+}
+```</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "OICR_ID": "Study #3560"
+}
+```</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Stage of maturity of change reported:": "Stage 2"
+}
+```</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Status": "Completed"
+}
+```</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Title": "Adoption of ex-ante tool to assess environmental impacts of livestock value chains has led to positive changes in knowledge and attitudes about the environmental footprint of livestock production in data-scarce regions"
+}
+```</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Year": "2021"
+}
+```</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for impact on a large scale? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for outcome on a large scale? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of impact reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Scale of outcome reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "To what Sustainable Development Goal (SDG) from the United Nations definitions this text is related to?": [
+        "GOAL 12: Responsible Consumption and Production",
+        "GOAL 13: Climate Action",
+        "GOAL 15: Life On Land"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What CGIAR innovations are mentioned? Provide the ID and the title": [
+        {
+            "ID": "2347",
+            "Title": "CLEANED-X (Comprehensive Livestock Environmental Assessment for improved Nutrition, a secured Environment, and sustainable Development along livestock value chains) tool version 3"
+        },
+        {
+            "ID": "73",
+            "Title": "CLEANED X Tools"
+        },
+        {
+            "ID": "241",
+            "Title": "CLEANED-R (Comprehensive Livestock Environmental Assessment for Improved Nutrition, a Secured Environment and Sustainable Development along Livestock and Fish Value Chains) tool"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What amount of impact was achieved?": "The report indicates that the CLEANED tool has been used by end users in over 34 countries, representing approximately 81 different organizations. A survey showed that over 95% of participants agree they have gained knowledge from using the tool, and 86% agree that the tool has helped them make more environmentally conscious decisions. The tool has also influenced policy enactments and investments towards improved technologies for more sustainable livestock production systems and value chains in data-scarce environments in Africa, Asia, and Latin America."
+}
+```</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What are the Impacts reported - description and amount (may be multiple)": [
+    {
+      "description": "Positive changes in knowledge and attitudes about the environmental footprint of livestock production in data-scarce regions.",
+      "amount": "Not quantified"
+    },
+    {
+      "description": "Increased education and awareness of environmental impact among end users.",
+      "amount": "Not quantified"
+    },
+    {
+      "description": "Influence on policy enactments and investments towards improved technologies for more sustainable livestock production systems and value chains.",
+      "amount": "Not quantified"
+    },
+    {
+      "description": "Encouragement of policy making decisions for minimal environmental impact.",
+      "amount": "Not quantified"
+    },
+    {
+      "description": "Increased interest in environmental impact issues among participants.",
+      "amount": "Not quantified"
+    }
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What impact (effect) of the intervention?": "The intervention, which involved the development and dissemination of the CLEANED tool, led to positive changes in knowledge and attitudes about the environmental footprint of livestock production in data-scarce regions. It empowered end users to design sustainable livestock systems by identifying environmental impacts and trade-offs of proposed practices. The tool has been credited with raising awareness of environmental impacts, influencing policy enactments, and encouraging investments towards improved technologies for more sustainable livestock production systems. A survey showed that 95% of participants gained knowledge from using the tool, and 86% agreed it helped them make more environmentally conscious decisions."
+}
+```</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What innovations contributed or have resulted in this outcome or impact?": [
+        "2347 - CLEANED-X (Comprehensive Livestock Environmental Assessment for improved Nutrition, a secured Environment, and sustainable Development along livestock value chains) tool version 3",
+        "73 - CLEANED X Tools",
+        "241 - CLEANED-R (Comprehensive Livestock Environmental Assessment for Improved Nutrition, a Secured Environment and Sustainable Development along Livestock and Fish Value Chains) tool"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What outcome described?": "The outcome described is the adoption of the CLEANED (Comprehensive Livestock Environmental Assessment for improved Nutrition, a secured Environment and sustainable Development along livestock value chains) ex-ante tool, which has led to positive changes in knowledge and attitudes about the environmental footprint of livestock production in data-scarce regions. The tool has been used to assess environmental impacts of livestock systems, leading to increased awareness and policy-making decisions for minimal environmental impact. It has influenced policy enactments and investments towards improved technologies for more sustainable livestock production systems and value chains throughout data-scarce environments in Africa, Asia, and Latin America."
+}
+```</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What's the outcome(s) reported - description and amount (may be multiple)' (outcome is the context of CGIAR are any changes in knowledge, skills, attitudes and/or relationships, which manifests as a change in behavior, to which research outputs and related activities have contributed. CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The outcomes are in the Sphere of Influence, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": [
+    {
+      "description": "The adoption of the CLEANED tool has led to positive changes in knowledge and attitudes about the environmental footprint of livestock production in data-scarce regions. It has empowered end users to better design sustainable livestock systems by helping to identify the environmental impacts and trade-offs of proposed practices or development interventions. The tool has encouraged policy-making decisions for minimal environmental impact and influenced policy enactments and investments towards improved technologies for more sustainable livestock production systems and value chains throughout data-scarce environments in Africa, Asia, and Latin America.",
+      "amount": "The tool has been used by end users in over 34 countries, representing approximately 81 different organizations. Over 95% of participants agree that they have gained knowledge from using the tool and 86% agree that the tool has helped them make more environmentally conscious decisions."
+    }
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Who changed behaviour as a result of the intervention?": "End users such as researchers, livestock industry stakeholders, educators, and policymakers changed behaviour as a result of the intervention."
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>OutcomesCaseStudySummary-Livestock-P573-OICS3164.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Create a brief description of the innovations reported. CGIAR develops multiple innovations, that are usually presented in the format of a number id, with a hyphen and a title, and later referenced in the text. What's the description of the innnovation in the text that made the outcome or impact possible?": "The innovation reported is '279-Woreda Participatory Land Use Planning for Pastoral Areas in Ethiopia'. This innovation involves a government process developed with technical assistance from ILRI, GIZ, and Oxfam, and financial assistance from the Swiss Development Cooperation (SDC) and the International Land Coalition (ILC). The Woreda Participatory Land Use Planning (WPLUP) process is designed to involve local communities in land use and development planning, providing opportunities for their priorities to be considered. It aims to protect pastoral land uses and secure rights of access for pastoralists and other users. The process includes participatory mapping to understand rangeland and grazing land use, and combines community knowledge with scientific data, such as land capability classification adapted for pastoral areas. The Government of Ethiopia has endorsed the process and is keen to scale it up across the country."
+}
+```</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "From the text of the Outcome case study summary provided to you, does it seems like the \"Impact Assessment study\" is already reported?": "No, the document does not mention an 'Impact Assessment study' being reported. It discusses the development and implementation of the Woreda Participatory Land Use Planning (WPLUP) process, its adoption by the Government of Ethiopia, and efforts to scale it up, but it does not specifically mention an 'Impact Assessment study'."
+}
+```</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "How many people or organisations made use of the intervention?": "&lt;NotDefined&gt;"
+}
+```</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Impact Area Tags (0,1,2)' (This is the relevance and is quantified by '0 - Not Targeted', '1 - Significant' and '2 - Principal' usually towards the end of the document and this speaks to CGIAR Impact Areas which are around the themes of Gender, Climate Change, Poverty, Nutrition, Environment, and others - focus on capturing the parameters with the 0, 1, 2, values)": {
+    "Gender relevance": "0-NotTargeted",
+    "Youth relevance": "0-NotTargeted",
+    "CapDev relevance": "1-Significant",
+    "Climate Change relevance": "0-NotTargeted"
   }
 }
 ```</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Locations_deployed": [
-    "Tanzania, United Republic"
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Name and type of partners listed as Key contributors that were involved. The type of partner needs to be inferred [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partners": [
+            "SDC-Swiss Development Cooperation",
+            "ILC-International Land Coalition",
+            "GIZ-Deutsche Gesellschaft für Internationale Zusammenarbeit/German Society for International Cooperation",
+            "Oxfam"
+        ],
+        "Demand Partners": [
+            "MoANR-Ministry of Agriculture and Natural Resources (Ethiopia)"
+        ],
+        "Scaling Partners": []
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Number and type of partners listed [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partner": 4,
+        "Demand Partner": 1,
+        "Scaling Partner": 0
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: CGIAR centres": "ILRI"
+}
+```</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Geographical scope' ('Global / Regional / National': please provide a hierarchy, for example, if national, in which regions are those nations? Using CGIAR regions)": "National: Ethiopia"
+}
+```</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Locations deployed": [
+        "Afar region (Chifra woreda)",
+        "Somali region (Shinile woreda)"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Non-CG partners": [
+    "SDC-Swiss Development Cooperation",
+    "ILC-International Land Coalition",
+    "GIZ-Deutsche Gesellschaft für Internationale Zusammenarbeit/German Society for International Cooperation",
+    "Oxfam",
+    "MoANR-Ministry of Agriculture and Natural Resources (Ethiopia)"
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: OICR_ID": "Study #3164"
+}
+```</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Stage of maturity of change reported:": "Stage2"
+}
+```</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Status": "On-going"
+}
+```</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Title": "Adoptionofworedaparticipatorylanduseplanning(WPLUP)inpastoralareasbygovernmentofEthiopia"
+}
+```</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Year": "2019"
+}
+```</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for impact on a large scale? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for outcome on a large scale? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of impact reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of outcome reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "To what Sustainable Development Goal (SDG) from the United Nations definitions this text is related to?": [
+        "GOAL 1: No Poverty",
+        "GOAL 2: Zero Hunger",
+        "GOAL 11: Sustainable Cities and Communities",
+        "GOAL 15: Life On Land"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What CGIAR innovations are mentioned? Provide the ID and the title' (Considering that CGIAR Innovations are usually referenced in this text in a specific section and with the format of some numbers, a hyphen and then the innovation name developed by CGIAR)": [
+        {
+            "ID": "279",
+            "Title": "Woreda Participatory Land Use Planning for Pastoral Areas in Ethiopia"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What amount of impact was achieved?": "&lt;NotDefined&gt;"
+}
+```</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What are the Impacts reported - description and amount (may be multiple)' (An impact is a change in state or condition of an attribute (e.g. crop production, income, dietary nutrirtion, deforestation rate. ) CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The impacts are in the Sphere of interest, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": {
+        "Impacts": [
+            {
+                "Description": "Increased resilience of agro-ecosystems and communities, especially those including smallholders",
+                "Amount": "Not specified"
+            },
+            {
+                "Description": "Increased access to productive assets, including natural resources",
+                "Amount": "Not specified"
+            },
+            {
+                "Description": "More productive and equitable management of natural resources",
+                "Amount": "Not specified"
+            },
+            {
+                "Description": "# of hectares degraded land area restored",
+                "Amount": "Not specified"
+            }
+        ]
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What impact (effect) of the intervention?": "The intervention led to the adoption of woreda participatory land use planning (WPLUP) in pastoral areas by the government of Ethiopia. This process, developed with technical assistance from ILRI, provides for the involvement of local communities in the land use planning and development planning process, giving greater opportunities for their priorities to be considered. WPLUP can protect pastoral land uses and give greater security of rights of access to pastoralists and other users. The process has been endorsed by the Government of Ethiopia, which launched a two-volume manual on the approach in September 2019. The government is keen to scale up the approach across the country and is seeking funding opportunities."
+}
+```</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What innovations contributed or have resulted in this outcome or impact?": "279-WoredaParticipatoryLandUsePlanningforPastoralAreasinEthiopia (https://tinyurl.com/2pdsvnvn)"
+}
+```</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What outcome described?": "The outcome described is the adoption of woreda participatory land use planning (WPLUP) in pastoral areas by the government of Ethiopia. This process was developed with technical assistance from ILRI and involves local communities in land use and development planning, providing greater opportunities for their priorities to be considered. WPLUP aims to protect pastoral land uses and provide greater security of rights of access to pastoralists and other users. The process has been endorsed by the Government of Ethiopia, which launched a two-volume manual on the approach in September 2019. The government is keen to scale up the approach across the country and is seeking funding opportunities."
+}
+```</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What's the outcome(s) reported - description and amount (may be multiple)' (outcome is the context of CGIAR are any changes in knowledge, skills, attitudes and/or relationships, which manifests as a change in behavior, to which research outputs and related activities have contributed. CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The outcomes are in the Sphere of Influence, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": [
+        {
+            "description": "The adoption of woreda participatory land use planning (WPLUP) in pastoral areas by the government of Ethiopia. This process was developed with technical assistance from ILRI and provides for the involvement of local communities in the land use planning and development planning process, giving greater opportunities for their priorities to be considered. WPLUP can protect pastoral land uses and give greater security of rights of access to pastoralists and other users.",
+            "amount": "Not quantified"
+        },
+        {
+            "description": "The Government of Ethiopia launched manuals on the woreda (district) participatory land use planning approach for pastoral areas in 2019 and is now seeking funding to upscale the approach across the country.",
+            "amount": "Not quantified"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Who changed behaviour as a result of the intervention?": "The Government of Ethiopia changed behaviour as a result of the intervention by adopting the woreda participatory land use planning (WPLUP) process for pastoral areas, launching a manual on the approach, and seeking to scale up the approach across the country."
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>OutcomesCaseStudySummary-Livestock-P573-OICS4373.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Create a brief description of the innovations reported. CGIAR develops multiple innovations, that are usually presented in the format of a number id, with a hyphen and a title, and later referenced in the text. What's the description of the innnovation in the text that made the outcome or impact possible?": "The innovation reported is '277 - Joint village land use planning in Tanzania'. This innovation involves the development and implementation of a joint village land use planning (JVLUP) approach in Tanzania. The approach was piloted in clusters of villages to manage shared resources such as grazing lands, water, or forests. It led to the issuance of certificates of customary rights of occupancy (CCROs) to local livestock keepers and included a focus on gender, conflict resolution training, and landscape-level mapping and planning. The approach was upscaled and strengthened in additional village clusters, contributing to improved rangeland management and tenure security for pastoralists."
+}
+```</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "From the text of the Outcome case study summary provided to you, does it seems like the \"Impact Assessment study\" is already reported?": "No, the text does not mention an 'Impact Assessment study' being reported. It discusses the uptake of Joint Village Land Use Planning (JVLUP) by the Government of Tanzania and the related activities and outcomes, but there is no specific mention of an 'Impact Assessment study' being reported."
+}
+```</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "How many people or organisations made use of the intervention?": "The document does not specify the exact number of people or organizations that made use of the intervention."
+}
+```</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Impact Area Tags (0,1,2)' (This is the relevance and is quantified by '0 - Not Targeted', '1 - Significant' and '2 - Principal' usually towards the end of the document and this speaks to CGIAR Impact Areas which are around the themes of Gender, Climate Change, Poverty, Nutrition, Environment, and others - focus on capturing the parameters with the 0, 1, 2, values)": {
+    "Gender relevance": 1,
+    "Youth relevance": 0,
+    "CapDev relevance": 1,
+    "Climate Change relevance": 0
+  }
+}
+```</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Name and type of partners listed as Key contributors that were involved. The type of partner needs to be inferred [# innovation partners, # demand partners, # scaling partners]' (This is multiple selection, please find next the definitions: partner_types = [\"Scaling Partner: Organizations or entities that CGIAR collaborates with to advance the uptake and use of innovations at scale.\", \"Demand Partner: Organizations or entities that have (expressed) an explicit or implicit demand for an innovation, change or who aspire to a specific goal or impact to which CGIAR can contribute.\", \"Innovation Partner: Organizations or entities that CGIAR collaborates and co-invests with to develop, improve the readiness of, or apply innovations to contribute to impact at scale.\", \"Other: Organizations or entities that CGIAR works with, but do not fit any of the other 3 categories (Scaling, Demand or Innovation)\"])": {
+        "TNRF - Tanzania Natural Resource Forum": "Innovation Partner",
+        "ILC - International Land Coalition": "Innovation Partner",
+        "MOLF - Ministry of Livestock and Fisheries (United Republic of Tanzania)": "Demand Partner"
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Number and type of partners listed [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partners": 3,
+        "Demand Partners": 0,
+        "Scaling Partners": 0
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: CGIAR centres": [
+    "ILRI"
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Geographical scope' ('Global / Regional / National': please provide a hierarchy, for example, if national, in which regions are those nations? Using CGIAR regions)": {
+        "Scope": "National",
+        "Country": "Tanzania, United Republic",
+        "CGIAR Region": "Sub-Saharan Africa"
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Locations deployed": "Tanzania, United Republic"
+}
+```</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>```json
 {
@@ -754,7 +1763,7 @@
 ```</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>```json
 {
@@ -763,83 +1772,83 @@
 ```</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Stage of maturity of change reported": "Stage 2"
-}
-```</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Status": "Completed"
-}
-```</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Title": "Uptake of Joint Village Land Use Planning (JVLUP) by the Government of Tanzania"
-}
-```</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Year": 2021
-}
-```</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>```json
-{
-    "Potential for impact on a large scale": "high"
-}
-```</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Potential for outcome on a large scale": "medium"
-}
-```</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "scale_of_impact_reported": "medium"
-}
-```</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Scale of outcome reported": "Sphere of influence"
-}
-```</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>```json
-{
-    "related_sustainable_development_goals": [
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Stage of maturity of change reported:": "Stage 2"
+}
+```</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Status": "Completed"
+}
+```</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Title": "Uptake of Joint Village Land Use Planning (JVLUP) by the Government of Tanzania"
+}
+```</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Year": "2021"
+}
+```</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for impact on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for outcome on a large scale? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of impact reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of outcome reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "To what Sustainable Development Goal (SDG) from the United Nations definitions this text is related to?": [
         "GOAL 1: No Poverty",
         "GOAL 5: Gender Equality",
         "GOAL 15: Life On Land",
@@ -849,254 +1858,226 @@
 ```</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "CGIAR_innovations": [
-    {
-      "ID": "277",
-      "Title": "Joint village land use planning in Tanzania"
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What CGIAR innovations are mentioned? Provide the ID and the title": [
+        {
+            "ID": "277",
+            "Title": "Joint village land use planning in Tanzania"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What amount of impact was achieved?": "The document does not provide a specific quantification of the impact achieved. However, it mentions that the Government of Tanzania released a revised manual for participatory village land use planning that includes the joint village land use planning (JVLUP) approach, which is expected to improve the security of tenure for pastoralists and lay the foundation for improved rangeland management. The document also highlights significant capacity building of partners and the promotion of JVLUP across the country."
+}
+```</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What are the Impacts reported - description and amount (may be multiple)' (An impact is a change in state or condition of an attribute (e.g. crop production, income, dietary nutrirtion, deforestation rate. ) CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The impacts are in the Sphere of interest, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": {
+        "description": [
+            "Increased access to productive assets, including natural resources",
+            "More productive and equitable management of natural resources"
+        ],
+        "amount": [
+            "# of people, of which 50% are women, assisted to exit poverty",
+            "# of hectares degraded land area restored"
+        ]
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What impact (effect) of the intervention?": "In 2021, the Government of Tanzania released a revised edition of their manual for participatory village land use planning, which includes and promotes the joint village land use planning (JVLUP) approach. This intervention, supported by ILRI, encourages the upscaling of JVLUP across the country, improving the security of tenure for pastoralists and laying the foundation for improved rangeland management. The intervention also led to the issuing of the first certificates of customary rights of occupancy (CCROs) to local livestock keepers and strengthened the approach with a focus on gender, conflict resolution training, and landscape-level mapping and planning."
+}
+```</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What innovations contributed or have resulted in this outcome or impact?": "277 - Joint village land use planning in Tanzania (https://tinyurl.com/2jqmf6e8)"
+}
+```</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What outcome described?": "In 2021, the Government of Tanzania released a revised edition of their manual for participatory village land use planning, which includes and promotes the joint village land use planning (JVLUP) approach. This approach, supported by ILRI, is expected to encourage the upscaling of JVLUP across the country, improving the security of tenure for pastoralists and laying the foundation for improved rangeland management."
+}
+```</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What's the outcome(s) reported - description and amount (may be multiple)' (outcome is the context of CGIAR are any changes in knowledge, skills, attitudes and/or relationships, which manifests as a change in behavior, to which research outputs and related activities have contributed. CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The outcomes are in the Sphere of Influence, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": [
+        {
+            "description": "In 2021, the Government of Tanzania released a revised edition of their manual for participatory village land use planning, which includes and promotes the joint village land use planning (JVLUP) approach. This approach, supported by ILRI, encourages the upscaling of JVLUP across the country, improving the security of tenure for pastoralists and laying the foundation for improved rangeland management.",
+            "amount": "The outcome is national in scope, affecting all villages in Tanzania that share grazing lands."
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Who changed behaviour as a result of the intervention?": "The Government of Tanzania changed behaviour as a result of the intervention by including the joint village land use planning (JVLUP) approach in the revised edition of their manual for participatory village land use planning."
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>OutcomesCaseStudySummary-Maize-P1461-OICS3322.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Create a brief description of the innovations reported. CGIAR develops multiple innovations, that are usually presented in the format of a number id, with a hyphen and a title, and later referenced in the text. What's the description of the innnovation in the text that made the outcome or impact possible?": [
+    {
+      "id": 253,
+      "title": "Four new hybrids with high yield potential incorporated to the Mexican seed market."
+    },
+    {
+      "id": 1404,
+      "title": "60 hybrids selected to be evaluated in the 2019 collaborative evaluation network of MasAgro."
+    },
+    {
+      "id": 1405,
+      "title": "CIM17MMT04: A new maize hybrid with high yield potential released in Mexico."
+    },
+    {
+      "id": 251,
+      "title": "47 hybrids (with high yield potential) selected for the three agricultural environments of Mexico: lowlands, mid-altitudes and highlands."
+    },
+    {
+      "id": 1403,
+      "title": "Maize hybrids with high yield potential for lowlands, mid-altitudes, and highlands."
+    },
+    {
+      "id": 252,
+      "title": "Five hybrids with high yield potential selected for the seed sector of Mexico."
     }
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "impact": {
-    "gender_relevance": "Significant",
-    "youth_relevance": "Not Targeted",
-    "capacity_development_relevance": "Significant",
-    "climate_change_relevance": "Not Targeted",
-    "main_achievements": {
-      "gender": "Trainings were conducted on gender and conflict management and a strong gender strategy was developed for the project.",
-      "capacity_development": "The project has worked very closely with government partners including providing sub-grants for implementing activities, trainings, arranging learning visits and other activities - significantly building up their capacity."
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "From the text of the Outcome case study summary provided to you, does it seems like the \"Impact Assessment study\" is already reported?": "No, the text does not explicitly mention that an 'Impact Assessment study' has been reported. It provides details on the outcomes and impacts of the MasAgro project, but it does not specify that an 'Impact Assessment study' has been conducted or reported."
+}
+```</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "How many people or organisations made use of the intervention?": "MasAgro has had a positive impact in the lives of more than 500,000 farmers."
+}
+```</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Impact Area Tags (0,1,2)' (This is the relevance and is quantified by '0 - Not Targeted', '1 - Significant' and '2 - Principal' usually towards the end of the document and this speaks to CGIAR Impact Areas which are around the themes of Gender, Climate Change, Poverty, Nutrition, Environment, and others - focus on capturing the parameters with the 0, 1, 2, values)": {
+    "Gender relevance": "0 - Not Targeted",
+    "Youth relevance": "0 - Not Targeted",
+    "CapDev relevance": "0 - Not Targeted",
+    "Climate Change relevance": "1 - Significant"
+  }
+}
+```</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Name and type of partners listed as Key contributors that were involved. The type of partner needs to be inferred [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partners": [
+            "SADER - Secretaria de Agricultura y Desarrollo Rural (México)"
+        ],
+        "Demand Partners": [],
+        "Scaling Partners": []
     }
-  }
-}
-```</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "impacts": [
-    {
-      "description": "Uptake of Joint Village Land Use Planning (JVLUP) by the Government of Tanzania, which includes and promotes the JVLUP approach in the national manual for participatory village land use planning.",
-      "amount": "Not quantified"
-    },
-    {
-      "description": "Improved security of tenure for pastoralists and laying the foundation for improved rangeland management across Tanzania.",
-      "amount": "Not quantified"
-    },
-    {
-      "description": "Increased access to productive assets, including natural resources.",
-      "amount": "Not quantified"
-    },
-    {
-      "description": "More productive and equitable management of natural resources.",
-      "amount": "Not quantified"
-    },
-    {
-      "description": "Contribution to SRF 2022/2030 targets: # of people, of which 50% are women, assisted to exit poverty.",
-      "amount": "Not quantified"
-    },
-    {
-      "description": "Contribution to SRF 2022/2030 targets: # of hectares degraded land area restored.",
-      "amount": "Not quantified"
+}
+```</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Number and type of partners listed [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partner": 0,
+        "Demand Partner": 0,
+        "Scaling Partner": 1
     }
-  ]
-}
-```</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "impact": {
-    "description": "In 2021, the Government of Tanzania released a revised edition of their manual for participatory village land use planning, which includes and promotes the joint village land use planning (JVLUP) approach. This approach, supported by ILRI, encourages the upscaling of JVLUP across the country, improving the security of tenure for pastoralists and laying the foundation for improved rangeland management.",
-    "outcomes": [
-      "Issuing of the first certificates of customary rights of occupancy (CCROs) to local livestock keepers.",
-      "Upscaling and strengthening of the JVLUP approach in additional village clusters.",
-      "Significant capacity building of partners, including NGOs and government entities.",
-      "Inclusion of JVLUP in the revised guidelines on participatory village land use planning by the National Land Use Planning Commission (NLUPC)."
-    ],
-    "gender_relevance": "Significant",
-    "capacity_development_relevance": "Significant"
-  }
-}
-```</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "innovations": [
-    {
-      "id": 277,
-      "name": "Joint village land use planning in Tanzania",
-      "link": "https://tinyurl.com/2jqmf6e8"
-    }
-  ]
-}
-```</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "outcome": "In 2021, the Government of Tanzania released a revised edition of their manual for participatory village land use planning, which includes and promotes the joint village land use planning (JVLUP) approach. This approach, supported by ILRI, is expected to encourage the upscaling of JVLUP across the country, improving the security of tenure for pastoralists and laying the foundation for improved rangeland management."
-}
-```</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "outcomes": [
-    {
-      "description": "In 2021, the Government of Tanzania released a revised edition of their manual for participatory village land use planning, which includes and promotes the joint village land use planning (JVLUP) approach. This approach, supported by ILRI, encourages the upscaling of JVLUP across the country, improving the security of tenure for pastoralists and laying the foundation for improved rangeland management.",
-      "amount": "Not quantified"
-    },
-    {
-      "description": "The inclusion of JVLUP in the revised guidelines by the National Land Use Planning Commission (NLUPC) promotes the use of JVLUP across all villages that share grazing lands in Tanzania.",
-      "amount": "Not quantified"
-    }
-  ]
-}
-```</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "changed_behaviour": "Government of Tanzania"
-}
-```</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>OutcomesCaseStudySummary-Maize-P1461-OICS3322.pdf</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "253": "Four new hybrids with high yield potential incorporated to the Mexican seed market.",
-  "1404": "60 hybrids selected to be evaluated in the 2019 collaborative evaluation network of MasAgro.",
-  "1405": "CIM17MMT04: A new maize hybrid with high yield potential released in Mexico.",
-  "251": "47 hybrids (with high yield potential) selected for the three agricultural environments of Mexico: lowlands, mid-altitudes and highlands.",
-  "1403": "Maize hybrids with high yield potential for lowlands, mid-altitudes, and highlands.",
-  "252": "Five hybrids with high yield potential selected for the seed sector of Mexico."
-}
-```</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "ImpactAssessmentStudyReported": false
-}
-```</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "number_of_people": 500000,
-  "number_of_organizations": 150
-}
-```</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Gender relevance": 0,
-  "Youth relevance": 0,
-  "CapDev relevance": 0,
-  "Climate Change relevance": 1
-}
-```</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>```json
-{
-    "Key Contributors": [
-        {
-            "Name": "SADER - Secretaria de Agricultura y Desarrollo Rural (México)",
-            "Type": "Scaling Partner"
-        }
-    ]
-}
-```</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>```json
-{
-    "Innovation Partner": 1,
-    "Demand Partner": 0,
-    "Scaling Partner": 1
-}
-```</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "CGIAR_centres": [
-    "CIMMYT"
-  ]
-}
-```</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Geographical_scope": {
-    "Level": "National",
-    "Country": "Mexico"
-  }
-}
-```</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Locations deployed": [
-    "Mexico"
-  ]
-}
-```</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+}
+```</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Please extract the following parameter: CGIAR centres": "CIMMYT"
+}
+```</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Geographical scope' ('Global / Regional / National': please provide a hierarchy, for example, if national, in which regions are those nations? Using CGIAR regions)": "National: Mexico"
+}
+```</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Locations deployed": "Mexico"
+}
+```</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>```json
 {
@@ -1112,7 +2093,7 @@
 ```</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>```json
 {
@@ -1121,278 +2102,573 @@
 ```</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Stage of maturity of change reported": "Stage 3"
-}
-```</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Status": "On-going"
-}
-```</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Title": "MasAgro project in Mexico: 500,000 farmers improve yields, incomes and food security by growing improved maize varieties and practicing conservation agriculture on 1.3 million hectares."
-}
-```</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Year": 2019
-}
-```</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>```json
-{
-    "Potential for impact on a large scale": "high"
-}
-```</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Potential for outcome on a large scale": "high"
-}
-```</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "scale_of_impact_reported": "high"
-}
-```</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "Scale of outcome reported": "Sphere of influence"
-}
-```</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>```json
-{
-    "related_SDGs": [
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Stage of maturity of change reported:": "Stage 3"
+}
+```</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Status": "On-going"
+}
+```</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Title": "MasAgro project in Mexico: 500,000 farmers improve yields, incomes and food security by growing improved maize varieties and practicing conservation agriculture on 1.3 million hectares."
+}
+```</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Year": "2019"
+}
+```</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for impact on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for outcome on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of impact reported? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of outcome reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "To what Sustainable Development Goal (SDG) from the United Nations definitions this text is related to?": [
         "GOAL 1: No Poverty",
         "GOAL 2: Zero Hunger",
         "GOAL 8: Decent Work and Economic Growth",
-        "GOAL 13: Climate Action",
-        "GOAL 15: Life On Land",
-        "GOAL 17: Partnerships for the Goals"
+        "GOAL 13: Climate Action"
     ]
 }
 ```</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "CGIAR_innovations": [
-    {
-      "ID": 253,
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What CGIAR innovations are mentioned? Provide the ID and the title' (Considering that CGIAR Innovations are usually referenced in this text in a specific section and with the format of some numbers, a hyphen and then the innovation name developed by CGIAR)": [
+    {
+      "ID": "253",
       "Title": "Four new hybrids with high yield potential incorporated to the Mexican seed market."
     },
     {
-      "ID": 1404,
+      "ID": "1404",
       "Title": "60 hybrids selected to be evaluated in the 2019 collaborative evaluation network of MasAgro."
     },
     {
-      "ID": 1405,
+      "ID": "1405",
       "Title": "CIM17MMT04: A new maize hybrid with high yield potential released in Mexico."
     },
     {
-      "ID": 251,
+      "ID": "251",
       "Title": "47 hybrids (with high yield potential) selected for the three agricultural environments of Mexico: lowlands, mid-altitudes and highlands."
     },
     {
-      "ID": 1403,
+      "ID": "1403",
       "Title": "Maize hybrids with high yield potential for lowlands, mid-altitudes, and highlands."
     },
     {
-      "ID": 252,
-      "Title": "Five hybrids with high yield potential selected for the seed sector of Mexico."
+      "ID": "252",
+      "Title": "Five hybrids with high yield potential selected for the seed sector of Mexico"
     }
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "impact": {
-    "farmers_affected": 500000,
-    "hectares_affected": 1300000,
-    "yield_increase_percentage": 20.5,
-    "income_increase_percentage": 23,
-    "rainfed_yield_increase_percentage": 92,
-    "rainfed_income_increase_percentage": 105
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What amount of impact was achieved?": "MasAgro has had a positive impact in the lives of more than 500,000 farmers who have adopted conservation agriculture and sustainable farming technologies on more than 1.3 million hectares across Mexico."
+}
+```</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What are the Impacts reported - description and amount (may be multiple)": [
+        {
+            "description": "MasAgro has had a positive impact in the lives of more than 500,000 farmers who have adopted conservation agriculture and sustainable farming technologies on more than 1.3 million hectares across Mexico.",
+            "amount": "500,000 farmers and 1.3 million hectares"
+        },
+        {
+            "description": "On average, smallholder farmers working with the project have achieved yields and revenue 20.5 percent and 23 percent higher respectively, compared to other regions of Mexico.",
+            "amount": "20.5% higher yields and 23% higher revenue"
+        },
+        {
+            "description": "For participating farmers practicing rainfed agriculture, yield and revenue gains were 92 percent and 105 percent higher respectively.",
+            "amount": "92% higher yields and 105% higher revenue"
+        },
+        {
+            "description": "Mexican seed companies increased their sales of improved seed by 55 percent from 2011 to 2018, as a direct result of the project’s efforts.",
+            "amount": "55% increase in seed sales"
+        },
+        {
+            "description": "Permanent raised beds generated an extra profit of $18,424 MXN per hectare ($776 USD at time of reporting) than tilled treatments.",
+            "amount": "$18,424 MXN per hectare ($776 USD)"
+        },
+        {
+            "description": "Conservation agriculture technique increased soil organic carbon by an average of 63%.",
+            "amount": "63% increase in soil organic carbon"
+        }
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What impact (effect) of the intervention?": "MasAgro has had a positive impact in the lives of more than 500,000 farmers who have adopted conservation agriculture and sustainable farming technologies on more than 1.3 million hectares across Mexico. On average, smallholder farmers working with the project have achieved yields and revenue 20.5 percent and 23 percent higher respectively, compared to other regions of Mexico. For participating farmers practicing rainfed agriculture, yield and revenue gains were 92 percent and 105 percent higher respectively. The project has also contributed to improved soil quality and increased sales of improved seed by 55 percent from 2011 to 2018."
+}
+```</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What innovations contributed or have resulted in this outcome or impact?": [
+        "253 - Four new hybrids with high yield potential incorporated to the Mexican seed market.",
+        "1404 - 60 hybrids selected to be evaluated in the 2019 collaborative evaluation network of MasAgro.",
+        "1405 - CIM17MMT04: A new maize hybrid with high yield potential released in Mexico.",
+        "251 - 47 hybrids (with high yield potential) selected for the three agricultural environments of Mexico: lowlands, mid-altitudes and highlands.",
+        "1403 - Maize hybrids with high yield potential for lowlands, mid-altitudes, and highlands.",
+        "252 - Five hybrids with high yield potential selected for the seed sector of Mexico"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What outcome described?": "MasAgro project in Mexico: 500,000 farmers improve yields, incomes and food security by growing improved maize varieties and practicing conservation agriculture on 1.3 million hectares."
+}
+```</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What's the outcome(s) reported - description and amount (may be multiple)' (outcome is the context of CGIAR are any changes in knowledge, skills, attitudes and/or relationships, which manifests as a change in behavior, to which research outputs and related activities have contributed. CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The outcomes are in the Sphere of Influence, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": {
+    "description": [
+      "MasAgro has had a positive impact in the lives of more than 500,000 farmers who have adopted conservation agriculture and sustainable farming technologies on more than 1.3 million hectares across Mexico.",
+      "On average, smallholder farmers working with the project have achieved yields and revenue 20.5 percent and 23 percent higher respectively, compared to other regions of Mexico.",
+      "For participating farmers practicing rainfed agriculture, yield and revenue gains were 92 percent and 105 percent higher respectively.",
+      "Mexican seed companies increased their sales of improved seed by 55 percent from 2011 to 2018, as a direct result of the project’s efforts."
+    ],
+    "amount": [
+      "500,000 farmers",
+      "1.3 million hectares",
+      "20.5% higher yields",
+      "23% higher revenue",
+      "92% higher yield gains in rainfed agriculture",
+      "105% higher revenue gains in rainfed agriculture",
+      "55% increase in seed sales"
+    ]
   }
 }
 ```</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "impacts": [
-    {
-      "description": "Improved maize yields and income for smallholder farmers in Mexico.",
-      "amount": "20.5% higher maize yields and 23% higher net income on average for participating farmers compared to other regions."
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Who changed behaviour as a result of the intervention?": "More than 500,000 farmers who have adopted conservation agriculture and sustainable farming technologies on more than 1.3 million hectares across Mexico."
+}
+```</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>OutcomesCaseStudySummary-Wheat-OICS3284.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Create a brief description of the innovations reported. CGIAR develops multiple innovations, that are usually presented in the format of a number id, with a hyphen and a title, and later referenced in the text. What's the description of the innnovation in the text that made the outcome or impact possible?": [
+    {
+      "id": "282-28",
+      "title": "new pre-breeding wheat lines with high yield potential and climate resilience for Mexico's growing regions",
+      "link": "https://tinyurl.com/2ef3eoeq"
     },
     {
-      "description": "Increased yields and income for farmers practicing rain-fed agriculture.",
-      "amount": "92% higher yields and 105% higher income for rain-fed agriculture participants."
+      "id": "465",
+      "title": "Elite winter wheat lines",
+      "link": "https://tinyurl.com/2kmtx3jh"
     },
     {
-      "description": "Adoption of conservation agriculture and sustainable farming technologies.",
-      "amount": "More than 500,000 farmers adopting these practices on over 1.3 million hectares."
-    },
-    {
-      "description": "Increased sales of improved seed by Mexican seed companies.",
-      "amount": "55% increase in sales from 2011 to 2018."
-    },
-    {
-      "description": "Improved soil quality and long-term yield through conservation agriculture.",
-      "amount": "Maize yielded an additional 3.9 tons per hectare with permanent raised beds, and soil organic carbon increased by 63%."
+      "id": "463",
+      "title": "Improvement of wheat landraces, collected from farmers, through evaluation and selection",
+      "link": "https://tinyurl.com/2hzwnuh5"
     }
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "impact": {
-    "farmers_affected": 500000,
-    "hectares_affected": 1300000,
-    "yield_increase": "20.5%",
-    "income_increase": "23%",
-    "rainfed_yield_increase": "92%",
-    "rainfed_income_increase": "105%",
-    "seed_sales_increase": "55%",
-    "additional_yield_per_hectare": "3.9 tons",
-    "additional_profit_per_hectare": "$776 USD",
-    "soil_organic_carbon_increase": "63%"
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "From the text of the Outcome case study summary provided to you, does it seems like the \"Impact Assessment study\" is already reported?": "No, the text does not explicitly mention that an 'Impact Assessment study' has been reported. It discusses the outcomes and impacts of the synthetic wheat breeding strategy, but it does not specify that an impact assessment study has been conducted or reported."
+}
+```</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "How many people or organisations made use of the intervention?": "The document does not specify the exact number of people or organizations that made use of the intervention."
+}
+```</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Impact Area Tags (0,1,2)' (This is the relevance and is quantified by '0 - Not Targeted', '1 - Significant' and '2 - Principal' usually towards the end of the document and this speaks to CGIAR Impact Areas which are around the themes of Gender, Climate Change, Poverty, Nutrition, Environment, and others - focus on capturing the parameters with the 0, 1, 2, values)": {
+    "Gender relevance": 0,
+    "Youth relevance": 0,
+    "CapDev relevance": 0,
+    "Climate Change relevance": 1
   }
 }
 ```</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "innovations": [
-    {
-      "id": 253,
-      "name": "Four new hybrids with high yield potential incorporated to the Mexican seed market",
-      "link": "https://tinyurl.com/2fv3q2wy"
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Name and type of partners listed as Key contributors that were involved. The type of partner needs to be inferred [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partners": [
+            "KSU-Kansas State University"
+        ],
+        "Demand Partners": [],
+        "Scaling Partners": []
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Number and type of partners listed [# innovation partners, # demand partners, # scaling partners]": {
+        "Innovation Partner": 1,
+        "Demand Partner": 0,
+        "Scaling Partner": 0
+    }
+}
+```</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: CGIAR centres": [
+    "International Maize and Wheat Improvement Center (CIMMYT)",
+    "ICARDA"
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Geographical scope' ('Global / Regional / National': please provide a hierarchy, for example, if national, in which regions are those nations? Using CGIAR regions)": "Global"
+}
+```</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Locations deployed": "southwest China (34% of total wheat area) and on 10% of the wheat area in India"
+}
+```</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Non-CG partners": "KSU-KansasStateUniversity"
+}
+```</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: OICR_ID": "Study #3284"
+}
+```</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Stage of maturity of change reported:": "Stage3"
+}
+```</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Status": "New"
+}
+```</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Title": "TheCGIARResearchProgramonWheat’s(WHEAT)syntheticwheatbreedingstrategy,which successfullytransfersvaluablediversityfromwildgoatgrasstomodernwheat,isprovidingfarmers withclimate-resilient,pestanddisease-resistantwheat."
+}
+```</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Please extract the following parameter: Year": "2019"
+}
+```</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for impact on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Potential for outcome on a large scale? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of impact reported? (high/medium/low)": "high"
+}
+```</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "Scale of outcome reported? (high/medium/low)": "medium"
+}
+```</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "To what Sustainable Development Goal (SDG) from the United Nations definitions this text is related to?": [
+        "GOAL 2: Zero Hunger",
+        "GOAL 13: Climate Action",
+        "GOAL 15: Life On Land"
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What CGIAR innovations are mentioned? Provide the ID and the title": [
+    {
+      "ID": "282",
+      "Title": "28 new pre-breeding wheat lines with high yield potential and climate resilience for Mexico's growing regions."
     },
     {
-      "id": 1404,
-      "name": "60 hybrids selected to be evaluated in the 2019 collaborative evaluation network of MasAgro",
-      "link": "https://tinyurl.com/2dvvephb"
+      "ID": "465",
+      "Title": "Elite winter wheat lines."
     },
     {
-      "id": 1405,
-      "name": "CIM17MMT04: A new maize hybrid with high yield potential released in Mexico",
-      "link": "https://tinyurl.com/2ly5djg3"
-    },
-    {
-      "id": 251,
-      "name": "47 hybrids (with high yield potential) selected for the three agricultural environments of Mexico: lowlands, mid-altitudes and highlands",
-      "link": "https://tinyurl.com/2fx86rz4"
-    },
-    {
-      "id": 1403,
-      "name": "Maize hybrids with high yield potential for lowlands, mid-altitudes, and highlands",
-      "link": "https://tinyurl.com/2pngasjl"
-    },
-    {
-      "id": 252,
-      "name": "Five hybrids with high yield potential selected for the seed sector of Mexico",
-      "link": "https://tinyurl.com/2keelfxq"
+      "ID": "463",
+      "Title": "Improvement of wheat landraces, collected from farmers, through evaluation and selection."
     }
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "outcome": "The MasAgro project in Mexico has positively impacted over 500,000 farmers by improving yields, incomes, and food security through the adoption of improved maize varieties and conservation agriculture techniques on more than 1.3 million hectares. Farmers participating in the project have achieved yields and revenue 20.5 percent and 23 percent higher, respectively, compared to other regions of Mexico. In rain-fed conditions, yield and revenue gains were 92 percent and 105 percent higher, respectively. The project has also contributed to increased sales of improved seed by Mexican seed companies and enhanced soil quality through conservation agriculture techniques."
-}
-```</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "outcomes": [
-    {
-      "description": "MasAgro has worked since 2012 to improve food security and incomes for smallholder farmers in Mexico through the development of improved maize varieties for specific regions coupled with conservation agriculture techniques promoted by the project. On average, smallholder farmers working with the project have achieved yields and revenue 20.5 percent and 23 percent higher respectively, compared to other regions of Mexico. For participating farmers practicing rainfed agriculture, yield and revenue gains are 92 percent and 105 percent higher respectively.",
-      "amount": "500,000 farmers"
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What amount of impact was achieved?": "Cultivars derived from synthetic wheat are currently grown on over 2 million hectares in southwest China (34% of total wheat area) and on 10% of the wheat area in India."
+}
+```</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What are the Impacts reported - description and amount (may be multiple)": [
+    {
+      "description": "Cultivars derived from synthetic wheat are currently grown on over 2 million hectares in southwest China (34% of total wheat area) and on 10% of the wheat area in India.",
+      "amount": "2,000,000 hectares"
     },
     {
-      "description": "MasAgro has developed 58 new maize hybrids specifically adapted for smallholder farmers in Mexico so far, which are distributed in partnership with local seed companies. These companies sold over 1 million bags of improved seed in 2018, contributing to improved yields and income for farmers.",
-      "amount": "1 million bags of improved seed"
+      "description": "Measure of genetic contribution of synthetic hexaploid wheat to CIMMYT’s global spring bread wheat breeding program and a proxy measure for maintaining agro-biodiversity in the context of wheat breeding. Results show importance of synthetics in maintaining and enhancing genetic diversity and genetic gain over years &amp; can guide a more targeted introgression strategy.",
+      "amount": "20% synthetics, as a % of elite lines in CIMMYT's spring wheat breeding program"
     },
     {
-      "description": "On average, rain-fed plots managed with MasAgro’s sustainable intensification practices yielded 25 percent more grain and revenue to maize farmers than plots managed with conventional practices, on the same farm.",
-      "amount": "25 percent more grain and revenue"
-    },
-    {
-      "description": "Mexican seed companies increased their sales of improved seed by 55 percent from 2011 to 2018, as a direct result of the project’s efforts.",
-      "amount": "55 percent increase in seed sales"
-    },
-    {
-      "description": "MasAgro has had a positive impact in the lives of more than 500,000 farmers who have adopted conservation agriculture and sustainable farming technologies on more than 1.3 million hectares across Mexico.",
-      "amount": "1.3 million hectares"
+      "description": "In the past 32 years, CIMMYT has generated more than 1,401 spring type SH wheat and over two thousand crosses made between the most promising SH wheat and elite bread wheat lines.",
+      "amount": "1,402 synthetic hexaploid wheat lines"
     }
   ]
 }
 ```</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>```json
-{
-  "changed_behaviour": "More than 500,000 farmers in Mexico"
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What impact (effect) of the intervention?": "The intervention of using synthetic hexaploid wheat to incorporate genetic diversity from wild wheat relatives into modern varieties has provided farmers with climate-resilient and pest-resistant wheat. This breeding strategy has resulted in 20% of the wheat lines in CIMMYT's global spring bread wheat breeding program containing an average of 15% of the genome segments from the wild wheat relative Aegilops tauschii. The impact is significant as CIMMYT contributions are present in nearly half of the wheat sown worldwide, benefiting over 2.5 billion people in 89 countries, many of whom live on less than USD 2 a day and depend on wheat as their primary staple food. The synthetic wheat breeding approach has been validated and is recommended for scaling up to meet the urgent global demand for climate-resilient, disease- and pest-resistant, high-yielding wheat."
+}
+```</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>```json
+{
+    "What innovations contributed or have resulted in this outcome or impact?": [
+        "282-28 new pre-breeding wheat lines with high yield potential and climate resilience for Mexico's growing regions.",
+        "465-Elite winter wheat lines.",
+        "463-Improvement of wheat landraces, collected from farmers, through evaluation and selection."
+    ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What outcome described?": "The breeding practice of using 'synthetic hexaploid wheat' to incorporate genetic diversity from wild wheat relatives into modern varieties benefits the world's farmers through climate resilient and pest-resistant wheat. A 2019 study validated this practice, finding that 20% of the wheat lines in CIMMYT's global spring bread wheat breeding program contain an average of 15% of the genome segments from the wild wheat relative Aegilops tauschii."
+}
+```</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "What's the outcome(s) reported - description and amount (may be multiple)' (outcome is the context of CGIAR are any changes in knowledge, skills, attitudes and/or relationships, which manifests as a change in behavior, to which research outputs and related activities have contributed. CGIAR looks at the results of its activities and operations from the following perspectives: Sphere of control, Sphere of Influence, and Sphere of Interest. The outcomes are in the Sphere of Influence, and here are the definitions: \"spheres = [ \"Sphere of control: Refers to actions under direct control of CGIAR that result in outputs. The sphere of control covers CGIAR research, innovations, services and output delivery.\", \"Sphere of influence: Refers to actions that can be directly influenced by CGIAR, defined as outcomes. The sphere of influence covers outcome research and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\", \"Sphere of interest: Refers to outcomes and impacts that can only be influenced indirectly by CGIAR. The sphere of interest covers selected intermediate development outcomes (IDOs) and sub-intermediate development outcomes (sub-IDOs), as defined by the Strategy and Results Framework 2016-2030.\" ]\" )": [
+    {
+      "description": "The breeding practice of using 'synthetic hexaploid wheat' to incorporate genetic diversity from wild wheat relatives into modern varieties benefits the world's farmers through climate-resilient and pest-resistant wheat. A 2019 study validated this practice, finding that 20% of the wheat lines in CIMMYT's global spring bread wheat breeding program contain an average of 15% of the genome segments from the wild wheat relative Aegilops tauschii.",
+      "amount": "20% of the wheat lines in CIMMYT's global spring bread wheat breeding program"
+    },
+    {
+      "description": "Cultivars derived from synthetic wheat are currently grown on over 2 million hectares in southwest China (34% of total wheat area) and on 10% of the wheat area in India.",
+      "amount": "2 million hectares in southwest China and 10% of the wheat area in India"
+    },
+    {
+      "description": "CIMMYT contributions are present in nearly half the wheat sown worldwide, benefiting many of the over 2.5 billion people in 89 countries who consume wheat, over 1.2 billion of whom live on less than USD 2 a day and depend on wheat as their primary staple food.",
+      "amount": "Over 2.5 billion people in 89 countries"
+    }
+  ]
+}
+```</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>```json
+{
+  "Who changed behaviour as a result of the intervention?": "Farmers in China, India, Argentina, Pakistan, Turkey, Kazakhstan, and Bolivia changed behavior by adopting synthetic wheat-derived varieties due to their disease and pest resistance, yield potential, and yield stability."
 }
 ```</t>
         </is>
